--- a/Files/Employees.xlsx
+++ b/Files/Employees.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -64,12 +62,28 @@
   </si>
   <si>
     <t>Stone</t>
+  </si>
+  <si>
+    <t>Bax</t>
+  </si>
+  <si>
+    <t>Banny</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>300000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,17 +422,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="4" customWidth="true" style="1" width="12.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="10.5703125"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -506,31 +520,24 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E6" t="n" s="1">
+        <v>300000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>